--- a/data/pca/factorExposure/factorExposure_2012-04-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-10.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01648384321318803</v>
+        <v>-0.01674743846642099</v>
       </c>
       <c r="C2">
-        <v>-0.03523782724632345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02893381426579009</v>
+      </c>
+      <c r="D2">
+        <v>0.001671543733995713</v>
+      </c>
+      <c r="E2">
+        <v>0.01019120344075596</v>
+      </c>
+      <c r="F2">
+        <v>-0.007773296311125008</v>
+      </c>
+      <c r="G2">
+        <v>-0.003343114654469256</v>
+      </c>
+      <c r="H2">
+        <v>-0.05399433684064446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07526144270875446</v>
+        <v>-0.0883824335182051</v>
       </c>
       <c r="C4">
-        <v>-0.05589963659364688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03894187581027124</v>
+      </c>
+      <c r="D4">
+        <v>0.06635448087788215</v>
+      </c>
+      <c r="E4">
+        <v>0.01583596411332472</v>
+      </c>
+      <c r="F4">
+        <v>-0.02898646143292647</v>
+      </c>
+      <c r="G4">
+        <v>-0.01037429916273401</v>
+      </c>
+      <c r="H4">
+        <v>0.04869602677283474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.106819630581731</v>
+        <v>-0.1193857146621592</v>
       </c>
       <c r="C6">
-        <v>-0.05662758248764679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03345149502233213</v>
+      </c>
+      <c r="D6">
+        <v>0.008867392089596733</v>
+      </c>
+      <c r="E6">
+        <v>-0.00776856059534562</v>
+      </c>
+      <c r="F6">
+        <v>-0.06258951105872616</v>
+      </c>
+      <c r="G6">
+        <v>-0.02199387802303251</v>
+      </c>
+      <c r="H6">
+        <v>-0.08007054218615732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04914623048184208</v>
+        <v>-0.06443208283808521</v>
       </c>
       <c r="C7">
-        <v>-0.02791651718487726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01927179979056083</v>
+      </c>
+      <c r="D7">
+        <v>0.04541766366778342</v>
+      </c>
+      <c r="E7">
+        <v>0.03556504846429613</v>
+      </c>
+      <c r="F7">
+        <v>-0.03747160868393964</v>
+      </c>
+      <c r="G7">
+        <v>0.03960246605680222</v>
+      </c>
+      <c r="H7">
+        <v>0.02208741341493264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03637206780372273</v>
+        <v>-0.04047357169544039</v>
       </c>
       <c r="C8">
-        <v>-0.01215515946985439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007866578990125076</v>
+      </c>
+      <c r="D8">
+        <v>0.02405954549130567</v>
+      </c>
+      <c r="E8">
+        <v>0.03066010026051884</v>
+      </c>
+      <c r="F8">
+        <v>-0.04956365321869716</v>
+      </c>
+      <c r="G8">
+        <v>-0.04230924167708475</v>
+      </c>
+      <c r="H8">
+        <v>0.006840551201187284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06820560979788982</v>
+        <v>-0.07966110890997058</v>
       </c>
       <c r="C9">
-        <v>-0.04620241908698262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02962591776512655</v>
+      </c>
+      <c r="D9">
+        <v>0.06354342040626924</v>
+      </c>
+      <c r="E9">
+        <v>0.03697409984131408</v>
+      </c>
+      <c r="F9">
+        <v>-0.03224921550061216</v>
+      </c>
+      <c r="G9">
+        <v>-0.01310755497701228</v>
+      </c>
+      <c r="H9">
+        <v>0.05855532754548168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02880122529537899</v>
+        <v>-0.03472076290348476</v>
       </c>
       <c r="C10">
-        <v>-0.0343582567728357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04183235895573519</v>
+      </c>
+      <c r="D10">
+        <v>-0.1726323439630172</v>
+      </c>
+      <c r="E10">
+        <v>0.05002967495230114</v>
+      </c>
+      <c r="F10">
+        <v>-0.0459619558759503</v>
+      </c>
+      <c r="G10">
+        <v>0.04142579761899182</v>
+      </c>
+      <c r="H10">
+        <v>-0.03604320401278433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07053170686294993</v>
+        <v>-0.0767367065091611</v>
       </c>
       <c r="C11">
-        <v>-0.04808949700906393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02720794699251413</v>
+      </c>
+      <c r="D11">
+        <v>0.06219913253564805</v>
+      </c>
+      <c r="E11">
+        <v>-0.003273748407182461</v>
+      </c>
+      <c r="F11">
+        <v>-0.02486409009257594</v>
+      </c>
+      <c r="G11">
+        <v>-0.003210963426238577</v>
+      </c>
+      <c r="H11">
+        <v>0.1015810832726842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05692119691002518</v>
+        <v>-0.0665037502112449</v>
       </c>
       <c r="C12">
-        <v>-0.05180319509956622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03559111336536643</v>
+      </c>
+      <c r="D12">
+        <v>0.04961275983800001</v>
+      </c>
+      <c r="E12">
+        <v>0.01360791719959982</v>
+      </c>
+      <c r="F12">
+        <v>-0.01538595467615485</v>
+      </c>
+      <c r="G12">
+        <v>-0.003636298302832604</v>
+      </c>
+      <c r="H12">
+        <v>0.0579679102140751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05917920082639019</v>
+        <v>-0.06548624907515031</v>
       </c>
       <c r="C13">
-        <v>-0.04228013247106736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02614870726671261</v>
+      </c>
+      <c r="D13">
+        <v>0.04249487952711103</v>
+      </c>
+      <c r="E13">
+        <v>0.01618789931533369</v>
+      </c>
+      <c r="F13">
+        <v>-0.004000400595620574</v>
+      </c>
+      <c r="G13">
+        <v>0.0001989560427158916</v>
+      </c>
+      <c r="H13">
+        <v>0.05333235121611578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03301344566233864</v>
+        <v>-0.04164378433516738</v>
       </c>
       <c r="C14">
-        <v>-0.03227997605692402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02811722156632646</v>
+      </c>
+      <c r="D14">
+        <v>0.004301772713462214</v>
+      </c>
+      <c r="E14">
+        <v>0.03010885918727762</v>
+      </c>
+      <c r="F14">
+        <v>-0.0151027309656871</v>
+      </c>
+      <c r="G14">
+        <v>-0.01824030494526369</v>
+      </c>
+      <c r="H14">
+        <v>0.05743149329444509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0399847673914974</v>
+        <v>-0.03992158584383631</v>
       </c>
       <c r="C15">
-        <v>-0.01164717452999267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003143104642733947</v>
+      </c>
+      <c r="D15">
+        <v>0.003169414035697456</v>
+      </c>
+      <c r="E15">
+        <v>0.04185679715495852</v>
+      </c>
+      <c r="F15">
+        <v>0.004659732510444538</v>
+      </c>
+      <c r="G15">
+        <v>-0.02842915269915721</v>
+      </c>
+      <c r="H15">
+        <v>0.04170321723404771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06002097233517037</v>
+        <v>-0.06989749877850114</v>
       </c>
       <c r="C16">
-        <v>-0.04367533542291621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02814277266866086</v>
+      </c>
+      <c r="D16">
+        <v>0.06245480041201692</v>
+      </c>
+      <c r="E16">
+        <v>0.006781847952466746</v>
+      </c>
+      <c r="F16">
+        <v>-0.02162227062873574</v>
+      </c>
+      <c r="G16">
+        <v>0.001565483996144242</v>
+      </c>
+      <c r="H16">
+        <v>0.05981415563051169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06444216005476974</v>
+        <v>-0.06371272377249795</v>
       </c>
       <c r="C20">
-        <v>-0.03350878933932744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01387886055427709</v>
+      </c>
+      <c r="D20">
+        <v>0.0388263617827555</v>
+      </c>
+      <c r="E20">
+        <v>0.03258846043080271</v>
+      </c>
+      <c r="F20">
+        <v>-0.01862580813290519</v>
+      </c>
+      <c r="G20">
+        <v>-0.01470624484845385</v>
+      </c>
+      <c r="H20">
+        <v>0.05593076232593348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02320884330422293</v>
+        <v>-0.02399945553014874</v>
       </c>
       <c r="C21">
-        <v>0.002722111067728085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009740421415263163</v>
+      </c>
+      <c r="D21">
+        <v>0.02866308057085136</v>
+      </c>
+      <c r="E21">
+        <v>0.03941872303242813</v>
+      </c>
+      <c r="F21">
+        <v>0.008899314407539468</v>
+      </c>
+      <c r="G21">
+        <v>-0.007196192318202292</v>
+      </c>
+      <c r="H21">
+        <v>-0.04812809669492722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07170985431532105</v>
+        <v>-0.06907818941909731</v>
       </c>
       <c r="C22">
-        <v>-0.06141327680153735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04015136739537364</v>
+      </c>
+      <c r="D22">
+        <v>0.07232865312566872</v>
+      </c>
+      <c r="E22">
+        <v>0.5732460265439954</v>
+      </c>
+      <c r="F22">
+        <v>0.2155529732632115</v>
+      </c>
+      <c r="G22">
+        <v>0.05667443651031179</v>
+      </c>
+      <c r="H22">
+        <v>-0.1943000729420311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07271392956659441</v>
+        <v>-0.0696878209778648</v>
       </c>
       <c r="C23">
-        <v>-0.06035954538492038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03886033436478629</v>
+      </c>
+      <c r="D23">
+        <v>0.0732953612040564</v>
+      </c>
+      <c r="E23">
+        <v>0.5728062220357453</v>
+      </c>
+      <c r="F23">
+        <v>0.2145304072040796</v>
+      </c>
+      <c r="G23">
+        <v>0.05485228012260941</v>
+      </c>
+      <c r="H23">
+        <v>-0.1898783051251495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06950896937959093</v>
+        <v>-0.07965192711070529</v>
       </c>
       <c r="C24">
-        <v>-0.0522760008422467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03393837212400566</v>
+      </c>
+      <c r="D24">
+        <v>0.05916024476011109</v>
+      </c>
+      <c r="E24">
+        <v>0.01781626714101702</v>
+      </c>
+      <c r="F24">
+        <v>-0.03148680676493236</v>
+      </c>
+      <c r="G24">
+        <v>-0.009721382034434647</v>
+      </c>
+      <c r="H24">
+        <v>0.06807233012936242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0699649284682002</v>
+        <v>-0.0772107152339513</v>
       </c>
       <c r="C25">
-        <v>-0.05791384422872415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03821744144353771</v>
+      </c>
+      <c r="D25">
+        <v>0.05199813171933595</v>
+      </c>
+      <c r="E25">
+        <v>0.01966599472135689</v>
+      </c>
+      <c r="F25">
+        <v>-0.02536741355966299</v>
+      </c>
+      <c r="G25">
+        <v>-0.02137380524281738</v>
+      </c>
+      <c r="H25">
+        <v>0.07171578705446539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04512314673145314</v>
+        <v>-0.04726603429576852</v>
       </c>
       <c r="C26">
-        <v>-0.01012575299118947</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001171308552876054</v>
+      </c>
+      <c r="D26">
+        <v>0.01845786547593537</v>
+      </c>
+      <c r="E26">
+        <v>0.05248217613723306</v>
+      </c>
+      <c r="F26">
+        <v>-0.01996527636250642</v>
+      </c>
+      <c r="G26">
+        <v>-0.0003586657248771355</v>
+      </c>
+      <c r="H26">
+        <v>0.06382669148027127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0539331246242914</v>
+        <v>-0.06355056432242372</v>
       </c>
       <c r="C28">
-        <v>-0.07378941886914803</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.0825682743936634</v>
+      </c>
+      <c r="D28">
+        <v>-0.3082016995290863</v>
+      </c>
+      <c r="E28">
+        <v>0.02628490474094877</v>
+      </c>
+      <c r="F28">
+        <v>-0.05807822979635566</v>
+      </c>
+      <c r="G28">
+        <v>-0.02026893767379075</v>
+      </c>
+      <c r="H28">
+        <v>-0.0404849391334386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04063408811130013</v>
+        <v>-0.04857866336056552</v>
       </c>
       <c r="C29">
-        <v>-0.03246536358897396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02580175826401213</v>
+      </c>
+      <c r="D29">
+        <v>0.004873121417060189</v>
+      </c>
+      <c r="E29">
+        <v>0.05582917072232919</v>
+      </c>
+      <c r="F29">
+        <v>-0.001870825540077899</v>
+      </c>
+      <c r="G29">
+        <v>-0.0009517625631966855</v>
+      </c>
+      <c r="H29">
+        <v>0.08310699431969124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1264271947522992</v>
+        <v>-0.133371602355489</v>
       </c>
       <c r="C30">
-        <v>-0.09726423993037268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.064550342470578</v>
+      </c>
+      <c r="D30">
+        <v>0.07083308049433423</v>
+      </c>
+      <c r="E30">
+        <v>0.08499602351471564</v>
+      </c>
+      <c r="F30">
+        <v>0.01384324235502284</v>
+      </c>
+      <c r="G30">
+        <v>-0.06851049983697985</v>
+      </c>
+      <c r="H30">
+        <v>-0.01776243018260621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04238531915922932</v>
+        <v>-0.04858795033018695</v>
       </c>
       <c r="C31">
-        <v>-0.02071631604754422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01209115781343534</v>
+      </c>
+      <c r="D31">
+        <v>0.02463203809430013</v>
+      </c>
+      <c r="E31">
+        <v>0.02852427103028352</v>
+      </c>
+      <c r="F31">
+        <v>-0.008254868389627973</v>
+      </c>
+      <c r="G31">
+        <v>0.01738498434264104</v>
+      </c>
+      <c r="H31">
+        <v>0.07014482466541085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03473012712000229</v>
+        <v>-0.03799895954533539</v>
       </c>
       <c r="C32">
-        <v>-0.02286515224571675</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01653896585839126</v>
+      </c>
+      <c r="D32">
+        <v>0.01173580560105024</v>
+      </c>
+      <c r="E32">
+        <v>0.070598819513259</v>
+      </c>
+      <c r="F32">
+        <v>0.01784913784053034</v>
+      </c>
+      <c r="G32">
+        <v>-0.03579091466947203</v>
+      </c>
+      <c r="H32">
+        <v>0.0587002853134188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0811940425488433</v>
+        <v>-0.09515331377134509</v>
       </c>
       <c r="C33">
-        <v>-0.04512401444053628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02686197022672299</v>
+      </c>
+      <c r="D33">
+        <v>0.05102793280898386</v>
+      </c>
+      <c r="E33">
+        <v>0.01563926688983782</v>
+      </c>
+      <c r="F33">
+        <v>0.0003077271891513599</v>
+      </c>
+      <c r="G33">
+        <v>0.004930500235431034</v>
+      </c>
+      <c r="H33">
+        <v>0.07870440580835796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05544186824469988</v>
+        <v>-0.06167954916113078</v>
       </c>
       <c r="C34">
-        <v>-0.0294570851182793</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01364156623730574</v>
+      </c>
+      <c r="D34">
+        <v>0.0545007011890007</v>
+      </c>
+      <c r="E34">
+        <v>0.01075055507816203</v>
+      </c>
+      <c r="F34">
+        <v>-0.01322038467895489</v>
+      </c>
+      <c r="G34">
+        <v>-0.008667230714567127</v>
+      </c>
+      <c r="H34">
+        <v>0.05918964294844341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03719384374514081</v>
+        <v>-0.04030324804052818</v>
       </c>
       <c r="C35">
-        <v>-0.009712907603380286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002404601085778042</v>
+      </c>
+      <c r="D35">
+        <v>0.006680391486877373</v>
+      </c>
+      <c r="E35">
+        <v>0.02012192792438222</v>
+      </c>
+      <c r="F35">
+        <v>0.01493496965452258</v>
+      </c>
+      <c r="G35">
+        <v>0.008642297848736481</v>
+      </c>
+      <c r="H35">
+        <v>0.03125854145774669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02040913206027441</v>
+        <v>-0.02703642080310266</v>
       </c>
       <c r="C36">
-        <v>-0.01760887504030813</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01362516573790921</v>
+      </c>
+      <c r="D36">
+        <v>0.0133319483969826</v>
+      </c>
+      <c r="E36">
+        <v>0.04548673249253699</v>
+      </c>
+      <c r="F36">
+        <v>-0.01309406819422303</v>
+      </c>
+      <c r="G36">
+        <v>0.004959023664682291</v>
+      </c>
+      <c r="H36">
+        <v>0.05114899834454871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04039441046673103</v>
+        <v>-0.0437839808950687</v>
       </c>
       <c r="C38">
-        <v>-0.003746193685691281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.003121503649630777</v>
+      </c>
+      <c r="D38">
+        <v>0.01701432773352478</v>
+      </c>
+      <c r="E38">
+        <v>0.05878621282787131</v>
+      </c>
+      <c r="F38">
+        <v>0.01946143783638054</v>
+      </c>
+      <c r="G38">
+        <v>-0.01549734089764793</v>
+      </c>
+      <c r="H38">
+        <v>0.02472047788566745</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09082578448593338</v>
+        <v>-0.1026708291676499</v>
       </c>
       <c r="C39">
-        <v>-0.07272470427043864</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04882380618308643</v>
+      </c>
+      <c r="D39">
+        <v>0.06650456144020339</v>
+      </c>
+      <c r="E39">
+        <v>0.0001992464953107308</v>
+      </c>
+      <c r="F39">
+        <v>-0.009509661864461035</v>
+      </c>
+      <c r="G39">
+        <v>-0.03827655789662938</v>
+      </c>
+      <c r="H39">
+        <v>0.07093680315479629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07300832403197474</v>
+        <v>-0.07143199458184012</v>
       </c>
       <c r="C40">
-        <v>-0.04090451557380706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01953731817506271</v>
+      </c>
+      <c r="D40">
+        <v>0.01258358891168672</v>
+      </c>
+      <c r="E40">
+        <v>0.02015622224507359</v>
+      </c>
+      <c r="F40">
+        <v>0.0528225725974447</v>
+      </c>
+      <c r="G40">
+        <v>-0.04358314567025831</v>
+      </c>
+      <c r="H40">
+        <v>-0.07841548580661349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04080168032589727</v>
+        <v>-0.04374191142807889</v>
       </c>
       <c r="C41">
-        <v>-0.007379864961344445</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.0009423295082130299</v>
+      </c>
+      <c r="D41">
+        <v>0.03450795297983023</v>
+      </c>
+      <c r="E41">
+        <v>0.003155802480936326</v>
+      </c>
+      <c r="F41">
+        <v>0.01579881161112948</v>
+      </c>
+      <c r="G41">
+        <v>-0.01622686903172122</v>
+      </c>
+      <c r="H41">
+        <v>0.03578735201746319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04610609921177009</v>
+        <v>-0.05709436710590255</v>
       </c>
       <c r="C43">
-        <v>-0.02596913532091226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01735559311760464</v>
+      </c>
+      <c r="D43">
+        <v>0.02493732203251757</v>
+      </c>
+      <c r="E43">
+        <v>0.01897043473005026</v>
+      </c>
+      <c r="F43">
+        <v>-0.01119457365145211</v>
+      </c>
+      <c r="G43">
+        <v>0.008088620928868754</v>
+      </c>
+      <c r="H43">
+        <v>0.05142450062192448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09437686957806711</v>
+        <v>-0.0936773634686964</v>
       </c>
       <c r="C44">
-        <v>-0.09702074733380936</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06536279686518215</v>
+      </c>
+      <c r="D44">
+        <v>0.06375430669674359</v>
+      </c>
+      <c r="E44">
+        <v>0.0958534985569694</v>
+      </c>
+      <c r="F44">
+        <v>-0.03837310128924876</v>
+      </c>
+      <c r="G44">
+        <v>-0.02855967135853452</v>
+      </c>
+      <c r="H44">
+        <v>0.01375391889373775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02516670422644186</v>
+        <v>-0.03236318961437922</v>
       </c>
       <c r="C46">
-        <v>-0.01403421594788523</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01015721896714102</v>
+      </c>
+      <c r="D46">
+        <v>0.03059277627491869</v>
+      </c>
+      <c r="E46">
+        <v>0.02783738830784104</v>
+      </c>
+      <c r="F46">
+        <v>-0.0141224124347639</v>
+      </c>
+      <c r="G46">
+        <v>-0.007825769797143138</v>
+      </c>
+      <c r="H46">
+        <v>0.03269478984089434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02863034572606915</v>
+        <v>-0.03683915465753154</v>
       </c>
       <c r="C47">
-        <v>-0.02610896194186822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.02107078225394983</v>
+      </c>
+      <c r="D47">
+        <v>0.01367706121271379</v>
+      </c>
+      <c r="E47">
+        <v>0.05379027336924341</v>
+      </c>
+      <c r="F47">
+        <v>-0.00589238690914074</v>
+      </c>
+      <c r="G47">
+        <v>0.03898401905391954</v>
+      </c>
+      <c r="H47">
+        <v>0.02192719981765413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03125668548752343</v>
+        <v>-0.03670915882158043</v>
       </c>
       <c r="C48">
-        <v>-0.01646093585374409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009403130003111024</v>
+      </c>
+      <c r="D48">
+        <v>0.02056243469223848</v>
+      </c>
+      <c r="E48">
+        <v>0.04315678524952802</v>
+      </c>
+      <c r="F48">
+        <v>0.0003502503860408776</v>
+      </c>
+      <c r="G48">
+        <v>-0.01493621559411889</v>
+      </c>
+      <c r="H48">
+        <v>0.0503918901655443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.161799312866491</v>
+        <v>-0.1906838479572177</v>
       </c>
       <c r="C49">
-        <v>-0.06612012340779273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03550900695344531</v>
+      </c>
+      <c r="D49">
+        <v>0.02811098814429224</v>
+      </c>
+      <c r="E49">
+        <v>-0.149571822416354</v>
+      </c>
+      <c r="F49">
+        <v>-0.07480026364832991</v>
+      </c>
+      <c r="G49">
+        <v>0.07386273604816</v>
+      </c>
+      <c r="H49">
+        <v>-0.2309829368541236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03787168656535298</v>
+        <v>-0.04494534820661366</v>
       </c>
       <c r="C50">
-        <v>-0.02369124640880921</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01618010014475303</v>
+      </c>
+      <c r="D50">
+        <v>0.03188637340362561</v>
+      </c>
+      <c r="E50">
+        <v>0.05424648761381761</v>
+      </c>
+      <c r="F50">
+        <v>-0.008590322923447581</v>
+      </c>
+      <c r="G50">
+        <v>0.01309524800323306</v>
+      </c>
+      <c r="H50">
+        <v>0.06550789357162182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02490494090692423</v>
+        <v>-0.02875259202328109</v>
       </c>
       <c r="C51">
-        <v>-0.008167606954584435</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.004165513345767793</v>
+      </c>
+      <c r="D51">
+        <v>0.01728031914724712</v>
+      </c>
+      <c r="E51">
+        <v>0.01552479988041503</v>
+      </c>
+      <c r="F51">
+        <v>-0.01971763309161733</v>
+      </c>
+      <c r="G51">
+        <v>-0.001579445713126812</v>
+      </c>
+      <c r="H51">
+        <v>-0.009215770405012621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.151364073073909</v>
+        <v>-0.1623560875592591</v>
       </c>
       <c r="C53">
-        <v>-0.08556178957721702</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05442742515025562</v>
+      </c>
+      <c r="D53">
+        <v>0.01744623563384574</v>
+      </c>
+      <c r="E53">
+        <v>-0.02240939953950527</v>
+      </c>
+      <c r="F53">
+        <v>-0.01433624131613934</v>
+      </c>
+      <c r="G53">
+        <v>-0.002703586845902137</v>
+      </c>
+      <c r="H53">
+        <v>0.1486386645392835</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05543126006030512</v>
+        <v>-0.05769372022959517</v>
       </c>
       <c r="C54">
-        <v>-0.02480895808899367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01235472907808672</v>
+      </c>
+      <c r="D54">
+        <v>0.01574926239906496</v>
+      </c>
+      <c r="E54">
+        <v>0.05042233275277112</v>
+      </c>
+      <c r="F54">
+        <v>-0.006702144845826946</v>
+      </c>
+      <c r="G54">
+        <v>-0.01686763809624087</v>
+      </c>
+      <c r="H54">
+        <v>0.05496151297902858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09967378793597785</v>
+        <v>-0.1041389082534215</v>
       </c>
       <c r="C55">
-        <v>-0.0595182536963746</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03709321980298089</v>
+      </c>
+      <c r="D55">
+        <v>0.02330161363681496</v>
+      </c>
+      <c r="E55">
+        <v>0.01757870542285042</v>
+      </c>
+      <c r="F55">
+        <v>-0.01324089114917693</v>
+      </c>
+      <c r="G55">
+        <v>-0.01328409155555897</v>
+      </c>
+      <c r="H55">
+        <v>0.1352198746225315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1447681657239518</v>
+        <v>-0.1593993528871563</v>
       </c>
       <c r="C56">
-        <v>-0.09498469877071332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06490425550438585</v>
+      </c>
+      <c r="D56">
+        <v>0.01956645726808573</v>
+      </c>
+      <c r="E56">
+        <v>-0.0237516094007421</v>
+      </c>
+      <c r="F56">
+        <v>-0.03181803401444133</v>
+      </c>
+      <c r="G56">
+        <v>0.003094617417233668</v>
+      </c>
+      <c r="H56">
+        <v>0.1535536282275957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1198919779327738</v>
+        <v>-0.09782069540436378</v>
       </c>
       <c r="C58">
-        <v>-0.007573488298355347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03307640350786752</v>
+      </c>
+      <c r="D58">
+        <v>0.0402973981986133</v>
+      </c>
+      <c r="E58">
+        <v>0.1652202853956947</v>
+      </c>
+      <c r="F58">
+        <v>0.006106945992055799</v>
+      </c>
+      <c r="G58">
+        <v>0.06650530686750368</v>
+      </c>
+      <c r="H58">
+        <v>-0.1740140150677983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1143446140767871</v>
+        <v>-0.1373429889427961</v>
       </c>
       <c r="C59">
-        <v>-0.07926620113569312</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08587210898233953</v>
+      </c>
+      <c r="D59">
+        <v>-0.3610956665616032</v>
+      </c>
+      <c r="E59">
+        <v>0.02824007244022926</v>
+      </c>
+      <c r="F59">
+        <v>-0.0141602931737792</v>
+      </c>
+      <c r="G59">
+        <v>0.04480740190871425</v>
+      </c>
+      <c r="H59">
+        <v>0.003979340822892582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2016551976118266</v>
+        <v>-0.2312664050890507</v>
       </c>
       <c r="C60">
-        <v>-0.1077093948622494</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06842891356036382</v>
+      </c>
+      <c r="D60">
+        <v>0.03819425879135269</v>
+      </c>
+      <c r="E60">
+        <v>-0.0957689052095644</v>
+      </c>
+      <c r="F60">
+        <v>-0.07049462153993219</v>
+      </c>
+      <c r="G60">
+        <v>-0.009610536669682167</v>
+      </c>
+      <c r="H60">
+        <v>-0.1752255578131731</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07854370547944238</v>
+        <v>-0.08767329762295022</v>
       </c>
       <c r="C61">
-        <v>-0.05191498037593256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03488250270635672</v>
+      </c>
+      <c r="D61">
+        <v>0.04405667750245394</v>
+      </c>
+      <c r="E61">
+        <v>9.969036478164477e-06</v>
+      </c>
+      <c r="F61">
+        <v>-0.003419857118310465</v>
+      </c>
+      <c r="G61">
+        <v>-0.003452925742744498</v>
+      </c>
+      <c r="H61">
+        <v>0.07188521090092198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1279411780105192</v>
+        <v>-0.1399514388674833</v>
       </c>
       <c r="C62">
-        <v>-0.07070568538619423</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04348859123332319</v>
+      </c>
+      <c r="D62">
+        <v>0.02743162882389854</v>
+      </c>
+      <c r="E62">
+        <v>-0.06029531283554412</v>
+      </c>
+      <c r="F62">
+        <v>-0.01782587403423143</v>
+      </c>
+      <c r="G62">
+        <v>-0.03305605538227031</v>
+      </c>
+      <c r="H62">
+        <v>0.153041457808475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05085779510858031</v>
+        <v>-0.05036060011378309</v>
       </c>
       <c r="C63">
-        <v>-0.0265134200912437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01385125666774214</v>
+      </c>
+      <c r="D63">
+        <v>0.01962126939645471</v>
+      </c>
+      <c r="E63">
+        <v>0.05333523573076034</v>
+      </c>
+      <c r="F63">
+        <v>0.01164535083626905</v>
+      </c>
+      <c r="G63">
+        <v>-0.0350677482886478</v>
+      </c>
+      <c r="H63">
+        <v>0.06115122683163906</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1075365770209274</v>
+        <v>-0.1096346230092968</v>
       </c>
       <c r="C64">
-        <v>-0.02942664581915845</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.005061898365727143</v>
+      </c>
+      <c r="D64">
+        <v>0.03995854443176469</v>
+      </c>
+      <c r="E64">
+        <v>0.04383075695331556</v>
+      </c>
+      <c r="F64">
+        <v>-0.04343551854496904</v>
+      </c>
+      <c r="G64">
+        <v>-0.05137862263175435</v>
+      </c>
+      <c r="H64">
+        <v>0.05842378146708249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1204159329275706</v>
+        <v>-0.127350868367495</v>
       </c>
       <c r="C65">
-        <v>-0.06356743839710169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03916889896065281</v>
+      </c>
+      <c r="D65">
+        <v>-5.70730530804344e-05</v>
+      </c>
+      <c r="E65">
+        <v>0.008532351111369175</v>
+      </c>
+      <c r="F65">
+        <v>-0.06701864842739479</v>
+      </c>
+      <c r="G65">
+        <v>-0.05170942328319311</v>
+      </c>
+      <c r="H65">
+        <v>-0.09820235347634736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1416843669884522</v>
+        <v>-0.1543372044618936</v>
       </c>
       <c r="C66">
-        <v>-0.07873081383877263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04469882490396072</v>
+      </c>
+      <c r="D66">
+        <v>0.1021802239124847</v>
+      </c>
+      <c r="E66">
+        <v>-0.0263363851372423</v>
+      </c>
+      <c r="F66">
+        <v>-0.01651316961833477</v>
+      </c>
+      <c r="G66">
+        <v>-0.05100375956188318</v>
+      </c>
+      <c r="H66">
+        <v>0.1535493167244877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07298908496781874</v>
+        <v>-0.08295904532414217</v>
       </c>
       <c r="C67">
-        <v>-0.01616575938444545</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003904273771890714</v>
+      </c>
+      <c r="D67">
+        <v>0.0310515271087981</v>
+      </c>
+      <c r="E67">
+        <v>0.02925759344661525</v>
+      </c>
+      <c r="F67">
+        <v>-0.009238772104758222</v>
+      </c>
+      <c r="G67">
+        <v>0.006152459631640559</v>
+      </c>
+      <c r="H67">
+        <v>0.02752602598055069</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05860889511478023</v>
+        <v>-0.05916903423149906</v>
       </c>
       <c r="C68">
-        <v>-0.05104252010912778</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05655692738552152</v>
+      </c>
+      <c r="D68">
+        <v>-0.2698612742315952</v>
+      </c>
+      <c r="E68">
+        <v>0.03895723631291624</v>
+      </c>
+      <c r="F68">
+        <v>-0.01530734710144537</v>
+      </c>
+      <c r="G68">
+        <v>0.01623293898606638</v>
+      </c>
+      <c r="H68">
+        <v>0.009146942605931423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05246628635874123</v>
+        <v>-0.05293927144353242</v>
       </c>
       <c r="C69">
-        <v>-0.02085972958140232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.006046138083087953</v>
+      </c>
+      <c r="D69">
+        <v>0.01687837740120732</v>
+      </c>
+      <c r="E69">
+        <v>0.02647283372906494</v>
+      </c>
+      <c r="F69">
+        <v>0.008150424434316787</v>
+      </c>
+      <c r="G69">
+        <v>0.0107629382471948</v>
+      </c>
+      <c r="H69">
+        <v>0.0507066038117972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004990709882657228</v>
+        <v>-0.0266460146489326</v>
       </c>
       <c r="C70">
-        <v>0.00400418209250429</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.00104319080075526</v>
+      </c>
+      <c r="D70">
+        <v>0.001169765819880722</v>
+      </c>
+      <c r="E70">
+        <v>-0.02627285797957045</v>
+      </c>
+      <c r="F70">
+        <v>-0.03126217850601056</v>
+      </c>
+      <c r="G70">
+        <v>0.02325942900187076</v>
+      </c>
+      <c r="H70">
+        <v>-0.04884967538303168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06030286516814602</v>
+        <v>-0.06243968642324256</v>
       </c>
       <c r="C71">
-        <v>-0.05094491530384788</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05901503719381952</v>
+      </c>
+      <c r="D71">
+        <v>-0.2967061411305185</v>
+      </c>
+      <c r="E71">
+        <v>0.03330164844437148</v>
+      </c>
+      <c r="F71">
+        <v>-0.04449014260094389</v>
+      </c>
+      <c r="G71">
+        <v>0.002679488386377786</v>
+      </c>
+      <c r="H71">
+        <v>0.01861264720340759</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1370464589523687</v>
+        <v>-0.1481607058101794</v>
       </c>
       <c r="C72">
-        <v>-0.06636752654078661</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03764952523159944</v>
+      </c>
+      <c r="D72">
+        <v>-0.01185665842786842</v>
+      </c>
+      <c r="E72">
+        <v>-0.1159526175736933</v>
+      </c>
+      <c r="F72">
+        <v>0.1564285246178334</v>
+      </c>
+      <c r="G72">
+        <v>-0.1141444081652195</v>
+      </c>
+      <c r="H72">
+        <v>0.01444643807279647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2655022919166883</v>
+        <v>-0.2844448860605825</v>
       </c>
       <c r="C73">
-        <v>-0.1176626744397144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05105695223854658</v>
+      </c>
+      <c r="D73">
+        <v>0.09675694230731345</v>
+      </c>
+      <c r="E73">
+        <v>-0.2259791754656331</v>
+      </c>
+      <c r="F73">
+        <v>-0.1247000076341111</v>
+      </c>
+      <c r="G73">
+        <v>0.214898882993009</v>
+      </c>
+      <c r="H73">
+        <v>-0.5065231688967443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07901379283730371</v>
+        <v>-0.09230155610167265</v>
       </c>
       <c r="C74">
-        <v>-0.07964319898289232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05948979012280237</v>
+      </c>
+      <c r="D74">
+        <v>0.03064162030050507</v>
+      </c>
+      <c r="E74">
+        <v>-0.005777007251438184</v>
+      </c>
+      <c r="F74">
+        <v>0.01088045673628399</v>
+      </c>
+      <c r="G74">
+        <v>0.02914961218318476</v>
+      </c>
+      <c r="H74">
+        <v>0.1188065220751587</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09568960252071468</v>
+        <v>-0.1018023119175044</v>
       </c>
       <c r="C75">
-        <v>-0.05668407543360438</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02899797712011533</v>
+      </c>
+      <c r="D75">
+        <v>0.01229633186111355</v>
+      </c>
+      <c r="E75">
+        <v>0.009695457773190641</v>
+      </c>
+      <c r="F75">
+        <v>-0.02736510634719197</v>
+      </c>
+      <c r="G75">
+        <v>0.007724170080583114</v>
+      </c>
+      <c r="H75">
+        <v>0.1157734920692435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1279284060898148</v>
+        <v>-0.1396006519933824</v>
       </c>
       <c r="C76">
-        <v>-0.08761094376430903</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0576326837269053</v>
+      </c>
+      <c r="D76">
+        <v>0.05045164258174643</v>
+      </c>
+      <c r="E76">
+        <v>0.03189668614763251</v>
+      </c>
+      <c r="F76">
+        <v>-0.04435201898120865</v>
+      </c>
+      <c r="G76">
+        <v>-0.00816861470210547</v>
+      </c>
+      <c r="H76">
+        <v>0.1496750952349113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1172747616533414</v>
+        <v>-0.1127260635586776</v>
       </c>
       <c r="C77">
-        <v>-0.02733850135477471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.001631687347134866</v>
+      </c>
+      <c r="D77">
+        <v>0.01040885856984554</v>
+      </c>
+      <c r="E77">
+        <v>0.00363915471177485</v>
+      </c>
+      <c r="F77">
+        <v>-0.1569012676140132</v>
+      </c>
+      <c r="G77">
+        <v>-0.8742070568247206</v>
+      </c>
+      <c r="H77">
+        <v>-0.2379166563801218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09616385744408296</v>
+        <v>-0.1351631079259731</v>
       </c>
       <c r="C78">
-        <v>-0.04332061773819509</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03437780588667766</v>
+      </c>
+      <c r="D78">
+        <v>0.09721378322866464</v>
+      </c>
+      <c r="E78">
+        <v>0.05970049490492478</v>
+      </c>
+      <c r="F78">
+        <v>-0.02002711352401903</v>
+      </c>
+      <c r="G78">
+        <v>-0.05083975642216482</v>
+      </c>
+      <c r="H78">
+        <v>-0.05199793903844662</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1449579787683316</v>
+        <v>-0.1514913690813088</v>
       </c>
       <c r="C79">
-        <v>-0.0852848795340696</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04789866963056636</v>
+      </c>
+      <c r="D79">
+        <v>0.02814122255324001</v>
+      </c>
+      <c r="E79">
+        <v>-0.009528982112036212</v>
+      </c>
+      <c r="F79">
+        <v>-0.01423522117986065</v>
+      </c>
+      <c r="G79">
+        <v>0.01823365327939263</v>
+      </c>
+      <c r="H79">
+        <v>0.164156804102362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04385135539067041</v>
+        <v>-0.04249499473395865</v>
       </c>
       <c r="C80">
-        <v>-0.01667640148807551</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005938150852158431</v>
+      </c>
+      <c r="D80">
+        <v>0.01980858345292609</v>
+      </c>
+      <c r="E80">
+        <v>-0.004525089110516673</v>
+      </c>
+      <c r="F80">
+        <v>0.009643092338641265</v>
+      </c>
+      <c r="G80">
+        <v>0.03100136074228384</v>
+      </c>
+      <c r="H80">
+        <v>0.0476602291993803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1174290484216677</v>
+        <v>-0.1216631965587526</v>
       </c>
       <c r="C81">
-        <v>-0.06812783721784781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03726837226666835</v>
+      </c>
+      <c r="D81">
+        <v>0.02243364715537871</v>
+      </c>
+      <c r="E81">
+        <v>0.02955401751309542</v>
+      </c>
+      <c r="F81">
+        <v>-0.01015048499686164</v>
+      </c>
+      <c r="G81">
+        <v>0.0323793980701662</v>
+      </c>
+      <c r="H81">
+        <v>0.1606702829742697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1267394782942658</v>
+        <v>-0.1299395064222129</v>
       </c>
       <c r="C82">
-        <v>-0.08163445801542624</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04971435600003465</v>
+      </c>
+      <c r="D82">
+        <v>0.02697670630113243</v>
+      </c>
+      <c r="E82">
+        <v>-0.01205147384786153</v>
+      </c>
+      <c r="F82">
+        <v>-0.0540992784691482</v>
+      </c>
+      <c r="G82">
+        <v>0.02861781785703288</v>
+      </c>
+      <c r="H82">
+        <v>0.179217583408832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0793578570001256</v>
+        <v>-0.08759318761159063</v>
       </c>
       <c r="C83">
-        <v>0.0004223765259132822</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01824544342997549</v>
+      </c>
+      <c r="D83">
+        <v>0.03826017088052606</v>
+      </c>
+      <c r="E83">
+        <v>0.02140966812897699</v>
+      </c>
+      <c r="F83">
+        <v>-0.05146646289527618</v>
+      </c>
+      <c r="G83">
+        <v>0.09434147775042932</v>
+      </c>
+      <c r="H83">
+        <v>-0.0658426046425177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0288478734968318</v>
+        <v>-0.03929335094125516</v>
       </c>
       <c r="C84">
-        <v>-0.02583026155832759</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02027001581924415</v>
+      </c>
+      <c r="D84">
+        <v>0.02921318734434461</v>
+      </c>
+      <c r="E84">
+        <v>0.02523143247358236</v>
+      </c>
+      <c r="F84">
+        <v>0.05362458142380384</v>
+      </c>
+      <c r="G84">
+        <v>0.05418419160137784</v>
+      </c>
+      <c r="H84">
+        <v>0.02682475778307074</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1178206789193903</v>
+        <v>-0.1194368177287788</v>
       </c>
       <c r="C85">
-        <v>-0.06434054736879224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03229374849531781</v>
+      </c>
+      <c r="D85">
+        <v>0.02506072277104269</v>
+      </c>
+      <c r="E85">
+        <v>0.02073527785119713</v>
+      </c>
+      <c r="F85">
+        <v>-0.03777760791922632</v>
+      </c>
+      <c r="G85">
+        <v>0.0065107805998944</v>
+      </c>
+      <c r="H85">
+        <v>0.1421764422848849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05063525735469458</v>
+        <v>-0.05822946092993012</v>
       </c>
       <c r="C86">
-        <v>-0.0312626551019359</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01940591959733616</v>
+      </c>
+      <c r="D86">
+        <v>0.02313391549598661</v>
+      </c>
+      <c r="E86">
+        <v>0.05992752671106061</v>
+      </c>
+      <c r="F86">
+        <v>-0.02854972050605731</v>
+      </c>
+      <c r="G86">
+        <v>0.005439190153358857</v>
+      </c>
+      <c r="H86">
+        <v>0.01317110592142139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1214952779105995</v>
+        <v>-0.1224272146789198</v>
       </c>
       <c r="C87">
-        <v>-0.07193821805114212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03411930933427401</v>
+      </c>
+      <c r="D87">
+        <v>0.07703279440733825</v>
+      </c>
+      <c r="E87">
+        <v>0.01910806217261335</v>
+      </c>
+      <c r="F87">
+        <v>0.004428029844974125</v>
+      </c>
+      <c r="G87">
+        <v>-0.1063321147372492</v>
+      </c>
+      <c r="H87">
+        <v>-0.02403371725482596</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05319778827244433</v>
+        <v>-0.06083861243417331</v>
       </c>
       <c r="C88">
-        <v>-0.03121594643503598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01959497030967862</v>
+      </c>
+      <c r="D88">
+        <v>0.02895329984392781</v>
+      </c>
+      <c r="E88">
+        <v>0.02226818734154255</v>
+      </c>
+      <c r="F88">
+        <v>-0.00700190175188115</v>
+      </c>
+      <c r="G88">
+        <v>-0.01673257726280809</v>
+      </c>
+      <c r="H88">
+        <v>0.06121530730138499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08069815762393133</v>
+        <v>-0.09316487164390731</v>
       </c>
       <c r="C89">
-        <v>-0.06661215665177124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07686448567073453</v>
+      </c>
+      <c r="D89">
+        <v>-0.342497893527626</v>
+      </c>
+      <c r="E89">
+        <v>0.06945913346257566</v>
+      </c>
+      <c r="F89">
+        <v>-0.08085343035916542</v>
+      </c>
+      <c r="G89">
+        <v>0.02094365376499878</v>
+      </c>
+      <c r="H89">
+        <v>0.01047682122565957</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07253615212485534</v>
+        <v>-0.08007311871957182</v>
       </c>
       <c r="C90">
-        <v>-0.05985795982923585</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06746834334191754</v>
+      </c>
+      <c r="D90">
+        <v>-0.3102674989941937</v>
+      </c>
+      <c r="E90">
+        <v>0.06357578924796876</v>
+      </c>
+      <c r="F90">
+        <v>-0.003163684284748404</v>
+      </c>
+      <c r="G90">
+        <v>0.005472381913019878</v>
+      </c>
+      <c r="H90">
+        <v>0.01004181793052728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08355472985077243</v>
+        <v>-0.08956871063537372</v>
       </c>
       <c r="C91">
-        <v>-0.0560712231851862</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03339313948880814</v>
+      </c>
+      <c r="D91">
+        <v>0.03105444894346545</v>
+      </c>
+      <c r="E91">
+        <v>0.01394186254158081</v>
+      </c>
+      <c r="F91">
+        <v>-0.001958908514296989</v>
+      </c>
+      <c r="G91">
+        <v>0.0441955800436432</v>
+      </c>
+      <c r="H91">
+        <v>0.0759486709510391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07407100996150702</v>
+        <v>-0.08082927714048008</v>
       </c>
       <c r="C92">
-        <v>-0.07310359572861978</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08059794835606823</v>
+      </c>
+      <c r="D92">
+        <v>-0.3400696410617053</v>
+      </c>
+      <c r="E92">
+        <v>0.05075944061574577</v>
+      </c>
+      <c r="F92">
+        <v>-0.03582536854793646</v>
+      </c>
+      <c r="G92">
+        <v>-0.003155819800089272</v>
+      </c>
+      <c r="H92">
+        <v>0.02622632258251775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06525544293376562</v>
+        <v>-0.07831506530184595</v>
       </c>
       <c r="C93">
-        <v>-0.06502066145856457</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07785622634061513</v>
+      </c>
+      <c r="D93">
+        <v>-0.3083336052725602</v>
+      </c>
+      <c r="E93">
+        <v>0.03589506349474834</v>
+      </c>
+      <c r="F93">
+        <v>-0.0429138583636348</v>
+      </c>
+      <c r="G93">
+        <v>-0.006410784306341274</v>
+      </c>
+      <c r="H93">
+        <v>-0.01118021269236389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.132983768058099</v>
+        <v>-0.1281081193265262</v>
       </c>
       <c r="C94">
-        <v>-0.06162654424231104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02250566047246194</v>
+      </c>
+      <c r="D94">
+        <v>0.0465090623008567</v>
+      </c>
+      <c r="E94">
+        <v>-0.003914639676554177</v>
+      </c>
+      <c r="F94">
+        <v>-0.01828389499161292</v>
+      </c>
+      <c r="G94">
+        <v>0.037365306002058</v>
+      </c>
+      <c r="H94">
+        <v>0.1069094238693807</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.117787874295383</v>
+        <v>-0.1290828206429706</v>
       </c>
       <c r="C95">
-        <v>-0.04000856244794271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.01052785813288579</v>
+      </c>
+      <c r="D95">
+        <v>0.05892350761282179</v>
+      </c>
+      <c r="E95">
+        <v>0.01240122474955794</v>
+      </c>
+      <c r="F95">
+        <v>-0.05107018075328828</v>
+      </c>
+      <c r="G95">
+        <v>0.01783820870788588</v>
+      </c>
+      <c r="H95">
+        <v>-0.01619362212684118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1998261415903115</v>
+        <v>-0.2098457832081293</v>
       </c>
       <c r="C97">
-        <v>-0.04592547674145284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.005399303799016362</v>
+      </c>
+      <c r="D97">
+        <v>-0.09063533225068883</v>
+      </c>
+      <c r="E97">
+        <v>-0.2925987962747922</v>
+      </c>
+      <c r="F97">
+        <v>0.8716614550275854</v>
+      </c>
+      <c r="G97">
+        <v>-0.1036099146333621</v>
+      </c>
+      <c r="H97">
+        <v>-0.01440718516459797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2450229625473836</v>
+        <v>-0.273973609049263</v>
       </c>
       <c r="C98">
-        <v>-0.08822128090648478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03756123782559648</v>
+      </c>
+      <c r="D98">
+        <v>0.06570427906444298</v>
+      </c>
+      <c r="E98">
+        <v>-0.1601934434210955</v>
+      </c>
+      <c r="F98">
+        <v>-0.0724615772120028</v>
+      </c>
+      <c r="G98">
+        <v>0.2826996996241943</v>
+      </c>
+      <c r="H98">
+        <v>-0.2031353520547733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4731289246632582</v>
+        <v>-0.2880465345258501</v>
       </c>
       <c r="C99">
-        <v>0.8661753213999807</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9356003818161994</v>
+      </c>
+      <c r="D99">
+        <v>-0.1246281945659094</v>
+      </c>
+      <c r="E99">
+        <v>0.06657036363004637</v>
+      </c>
+      <c r="F99">
+        <v>-0.04368323669220306</v>
+      </c>
+      <c r="G99">
+        <v>0.01228962604588645</v>
+      </c>
+      <c r="H99">
+        <v>0.06146398215705356</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04070381206434456</v>
+        <v>-0.04868580785548412</v>
       </c>
       <c r="C101">
-        <v>-0.03245313653751175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02587914210855896</v>
+      </c>
+      <c r="D101">
+        <v>0.005404833293590741</v>
+      </c>
+      <c r="E101">
+        <v>0.05491289144418399</v>
+      </c>
+      <c r="F101">
+        <v>-0.001363143627754417</v>
+      </c>
+      <c r="G101">
+        <v>-0.0007948772117554151</v>
+      </c>
+      <c r="H101">
+        <v>0.08253960552637944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
